--- a/ResultadoEleicoesDistritos/VILA REAL_MONDIM DE BASTO.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_MONDIM DE BASTO.xlsx
@@ -597,64 +597,64 @@
         <v>2254</v>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I2" t="n">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J2" t="n">
-        <v>938</v>
+        <v>880</v>
       </c>
       <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>276</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>178</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>253</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>148</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
         <v>94</v>
       </c>
       <c r="T2" t="n">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>1449</v>
+        <v>1461</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1481</v>
+        <v>1450</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
